--- a/src/main/resources/websheet/PRICELISTWITHOUT.xlsx
+++ b/src/main/resources/websheet/PRICELISTWITHOUT.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Sale Price Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sale Price Report'!$A$1:$D$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sale Price Report'!$A$1:$D$9</definedName>
     <definedName name="solver_eng" localSheetId="0">1</definedName>
     <definedName name="solver_neg" localSheetId="0">1</definedName>
     <definedName name="solver_num" localSheetId="0">0</definedName>
-    <definedName name="solver_opt" localSheetId="0">'Sale Price Report'!$B$4</definedName>
+    <definedName name="solver_opt" localSheetId="0">'Sale Price Report'!$B$3</definedName>
     <definedName name="solver_typ" localSheetId="0">1</definedName>
     <definedName name="solver_val" localSheetId="0">0</definedName>
     <definedName name="solver_ver" localSheetId="0">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>Sale Price Report</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">  If you require help, please email to: </t>
     </r>
     <r>
@@ -62,7 +68,7 @@
         <sz val="10"/>
         <color indexed="48"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Jason.Jiang.ca@gmail.com</t>
     </r>
@@ -71,62 +77,213 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
-      <color indexed="18"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="48"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +298,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -162,6 +517,19 @@
         <color indexed="8"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -211,77 +579,357 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -581,29 +1229,17 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
@@ -623,133 +1259,130 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="20.8333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.8333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.1666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.8333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.16666666666667" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.33333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="2" ht="24" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="3" ht="35.45" customHeight="1" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="6" t="s">
+    <row r="4" ht="22.15" customHeight="1" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+    <row r="5" s="1" customFormat="1" ht="24.6" customHeight="1" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="6" s="2" customFormat="1" ht="24.6" customHeight="1" spans="1:4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="24.6" customHeight="1" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" ht="28.9" customHeight="1" spans="1:4">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
-    <row r="8" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="9" ht="21.6" customHeight="1" spans="1:4">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup scale="55" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="1" scale="55" firstPageNumber="0" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>